--- a/src/results_2023/2384_out.xlsx
+++ b/src/results_2023/2384_out.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Git" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Linux" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1435,4 +1441,6112 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Астахов Артемий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aeverless@falling.cloud</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>113</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Баженов Святослав Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>slava.bazhenov1337@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>113</v>
+      </c>
+      <c r="H3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Березин Дмитрий Антонович</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>harmoni2013@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Бочкарева Евгения Романовна</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>evgeniab4k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>evgenia0709</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">evgenia0709 </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>113</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Валеева Алина Артуровна</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>alina.valeyeva21@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>alinavaleyeva</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alinavaleyeva </t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>113</v>
+      </c>
+      <c r="H6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вовченко София Евгеньевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sofiavovchenko@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sofassssssss</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">София Вовченко </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>113</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Гизатуллин Амир Равильевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>amirgizatullin176@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ca11ba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Амир Гизатуллин </t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>113</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Гребенников Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>beasty2017@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Гурков Арсений Павлович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>hurars23@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>arseniygurkov</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Арсений Гурков</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>113</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Дамакин Роман Павлович</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>damakinr@mail.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>popcorn8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>113</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Исмаилов Максим Владимирович</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guarus19@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hopi44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>113</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кашина Полина Павловна</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>polinochkakashina@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>polinakashina1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Полина Кашина</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>113</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кашутин Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dmitrykashutin_04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lilfolant</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>folant</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>113</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Косенко Ярослав Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yaroslaw.koc@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>113</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кузьминых Егор Михайлович</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>egor67877@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kuza67877</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>egor67877 (Егор Кузьминых)</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>113</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Лавренова Юлия Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>julia.d.l.04@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1lavrenkova1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Юлия Лавренова</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>113</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Романовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mari1357924680@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Поглазов Никита Васильевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>poglazova.natali@mail.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Сидоренко Алексей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>lesha.sidorenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>113</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Симион Владислав Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ladsimhgs2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>vlad432343</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>depressedkid</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Симонов Александр Владимирович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sashaaasim@mail.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sashasimonovv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sashasimonovv </t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Соц Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>katesots.404k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>katyasots</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Екатерина Соц</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>113</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Тимченко Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dmitriy.timchenko@icloud.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>alisha192</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>113</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Цыганков Роман Максимович</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>romario280404@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>tsiiron</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-tsiiron</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>113</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шурыгин Данил Леонидович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>danil854458@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>113</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Володченко Матвей Валентинович</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>matvey.volodchenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>113</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Матеюк Диана Сергеевна</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>dianamateuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Диана Матеюк</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>113</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рудаковская Эвелина Сергеевна</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rudakovskaya.evelina@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>evelinarud</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Эвелина Рудаковская</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>113</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Телепнёва Кристина Витальевна</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>kristina.telepnva@mail.ru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kristelepneva</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Кристина Телепнёва</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>113</v>
+      </c>
+      <c r="H30" t="n">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Астахов Артемий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aeverless@falling.cloud</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Баженов Святослав Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>slava.bazhenov1337@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Березин Дмитрий Антонович</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>harmoni2013@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Бочкарева Евгения Романовна</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>evgeniab4k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>evgenia0709</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">evgenia0709 </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Валеева Алина Артуровна</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>alina.valeyeva21@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>alinavaleyeva</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alinavaleyeva </t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вовченко София Евгеньевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sofiavovchenko@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sofassssssss</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">София Вовченко </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Гизатуллин Амир Равильевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>amirgizatullin176@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ca11ba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Амир Гизатуллин </t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Гребенников Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>beasty2017@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Гурков Арсений Павлович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>hurars23@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>arseniygurkov</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Арсений Гурков</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Дамакин Роман Павлович</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>damakinr@mail.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>popcorn8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Исмаилов Максим Владимирович</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guarus19@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hopi44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кашина Полина Павловна</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>polinochkakashina@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>polinakashina1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Полина Кашина</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кашутин Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dmitrykashutin_04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lilfolant</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>folant</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Косенко Ярослав Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yaroslaw.koc@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кузьминых Егор Михайлович</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>egor67877@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kuza67877</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>egor67877 (Егор Кузьминых)</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Лавренова Юлия Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>julia.d.l.04@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1lavrenkova1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Юлия Лавренова</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Романовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mari1357924680@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Поглазов Никита Васильевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>poglazova.natali@mail.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Сидоренко Алексей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>lesha.sidorenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Симион Владислав Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ladsimhgs2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>vlad432343</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>depressedkid</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Симонов Александр Владимирович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sashaaasim@mail.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sashasimonovv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sashasimonovv </t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Соц Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>katesots.404k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>katyasots</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Екатерина Соц</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Тимченко Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dmitriy.timchenko@icloud.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>alisha192</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Цыганков Роман Максимович</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>romario280404@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>tsiiron</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-tsiiron</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шурыгин Данил Леонидович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>danil854458@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Володченко Матвей Валентинович</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>matvey.volodchenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>74</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Матеюк Диана Сергеевна</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>dianamateuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Диана Матеюк</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рудаковская Эвелина Сергеевна</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rudakovskaya.evelina@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>evelinarud</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Эвелина Рудаковская</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>74</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Телепнёва Кристина Витальевна</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>kristina.telepnva@mail.ru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kristelepneva</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Кристина Телепнёва</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>74</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Астахов Артемий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aeverless@falling.cloud</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Баженов Святослав Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>slava.bazhenov1337@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Березин Дмитрий Антонович</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>harmoni2013@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Бочкарева Евгения Романовна</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>evgeniab4k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>evgenia0709</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">evgenia0709 </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Валеева Алина Артуровна</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>alina.valeyeva21@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>alinavaleyeva</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alinavaleyeva </t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вовченко София Евгеньевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sofiavovchenko@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sofassssssss</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">София Вовченко </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Гизатуллин Амир Равильевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>amirgizatullin176@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ca11ba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Амир Гизатуллин </t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Гребенников Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>beasty2017@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Гурков Арсений Павлович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>hurars23@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>arseniygurkov</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Арсений Гурков</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Дамакин Роман Павлович</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>damakinr@mail.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>popcorn8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Исмаилов Максим Владимирович</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guarus19@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hopi44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кашина Полина Павловна</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>polinochkakashina@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>polinakashina1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Полина Кашина</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кашутин Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dmitrykashutin_04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lilfolant</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>folant</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Косенко Ярослав Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yaroslaw.koc@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кузьминых Егор Михайлович</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>egor67877@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kuza67877</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>egor67877 (Егор Кузьминых)</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Лавренова Юлия Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>julia.d.l.04@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1lavrenkova1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Юлия Лавренова</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Романовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mari1357924680@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Поглазов Никита Васильевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>poglazova.natali@mail.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Сидоренко Алексей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>lesha.sidorenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Симион Владислав Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ladsimhgs2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>vlad432343</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>depressedkid</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Симонов Александр Владимирович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sashaaasim@mail.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sashasimonovv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sashasimonovv </t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Соц Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>katesots.404k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>katyasots</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Екатерина Соц</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Тимченко Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dmitriy.timchenko@icloud.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>alisha192</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Цыганков Роман Максимович</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>romario280404@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>tsiiron</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-tsiiron</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шурыгин Данил Леонидович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>danil854458@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Володченко Матвей Валентинович</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>matvey.volodchenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>74</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Матеюк Диана Сергеевна</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>dianamateuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Диана Матеюк</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рудаковская Эвелина Сергеевна</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rudakovskaya.evelina@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>evelinarud</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Эвелина Рудаковская</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>74</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Телепнёва Кристина Витальевна</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>kristina.telepnva@mail.ru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kristelepneva</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Кристина Телепнёва</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>74</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Астахов Артемий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aeverless@falling.cloud</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Баженов Святослав Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>slava.bazhenov1337@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Березин Дмитрий Антонович</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>harmoni2013@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Бочкарева Евгения Романовна</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>evgeniab4k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>evgenia0709</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">evgenia0709 </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Валеева Алина Артуровна</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>alina.valeyeva21@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>alinavaleyeva</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alinavaleyeva </t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вовченко София Евгеньевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sofiavovchenko@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sofassssssss</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">София Вовченко </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Гизатуллин Амир Равильевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>amirgizatullin176@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ca11ba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Амир Гизатуллин </t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Гребенников Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>beasty2017@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Гурков Арсений Павлович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>hurars23@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>arseniygurkov</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Арсений Гурков</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Дамакин Роман Павлович</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>damakinr@mail.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>popcorn8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Исмаилов Максим Владимирович</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guarus19@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hopi44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кашина Полина Павловна</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>polinochkakashina@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>polinakashina1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Полина Кашина</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кашутин Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dmitrykashutin_04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lilfolant</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>folant</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Косенко Ярослав Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yaroslaw.koc@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кузьминых Егор Михайлович</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>egor67877@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kuza67877</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>egor67877 (Егор Кузьминых)</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Лавренова Юлия Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>julia.d.l.04@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1lavrenkova1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Юлия Лавренова</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Романовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mari1357924680@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Поглазов Никита Васильевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>poglazova.natali@mail.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Сидоренко Алексей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>lesha.sidorenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Симион Владислав Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ladsimhgs2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>vlad432343</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>depressedkid</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Симонов Александр Владимирович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sashaaasim@mail.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sashasimonovv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sashasimonovv </t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Соц Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>katesots.404k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>katyasots</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Екатерина Соц</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Тимченко Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dmitriy.timchenko@icloud.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>alisha192</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Цыганков Роман Максимович</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>romario280404@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>tsiiron</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-tsiiron</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шурыгин Данил Леонидович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>danil854458@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Володченко Матвей Валентинович</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>matvey.volodchenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>74</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Матеюк Диана Сергеевна</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>dianamateuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Диана Матеюк</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рудаковская Эвелина Сергеевна</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rudakovskaya.evelina@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>evelinarud</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Эвелина Рудаковская</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>74</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Телепнёва Кристина Витальевна</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>kristina.telepnva@mail.ru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kristelepneva</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Кристина Телепнёва</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>74</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Астахов Артемий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aeverless@falling.cloud</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Баженов Святослав Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>slava.bazhenov1337@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Березин Дмитрий Антонович</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>harmoni2013@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Бочкарева Евгения Романовна</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>evgeniab4k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>evgenia0709</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">evgenia0709 </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Валеева Алина Артуровна</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>alina.valeyeva21@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>alinavaleyeva</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alinavaleyeva </t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вовченко София Евгеньевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sofiavovchenko@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sofassssssss</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">София Вовченко </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Гизатуллин Амир Равильевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>amirgizatullin176@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ca11ba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Амир Гизатуллин </t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Гребенников Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>beasty2017@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Гурков Арсений Павлович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>hurars23@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>arseniygurkov</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Арсений Гурков</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Дамакин Роман Павлович</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>damakinr@mail.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>popcorn8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Исмаилов Максим Владимирович</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guarus19@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hopi44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кашина Полина Павловна</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>polinochkakashina@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>polinakashina1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Полина Кашина</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кашутин Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dmitrykashutin_04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lilfolant</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>folant</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Косенко Ярослав Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yaroslaw.koc@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кузьминых Егор Михайлович</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>egor67877@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kuza67877</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>egor67877 (Егор Кузьминых)</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Лавренова Юлия Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>julia.d.l.04@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1lavrenkova1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Юлия Лавренова</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Романовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mari1357924680@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Поглазов Никита Васильевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>poglazova.natali@mail.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Сидоренко Алексей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>lesha.sidorenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Симион Владислав Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ladsimhgs2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>vlad432343</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>depressedkid</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Симонов Александр Владимирович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sashaaasim@mail.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sashasimonovv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sashasimonovv </t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Соц Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>katesots.404k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>katyasots</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Екатерина Соц</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Тимченко Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dmitriy.timchenko@icloud.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>alisha192</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Цыганков Роман Максимович</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>romario280404@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>tsiiron</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-tsiiron</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шурыгин Данил Леонидович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>danil854458@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Володченко Матвей Валентинович</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>matvey.volodchenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>74</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Матеюк Диана Сергеевна</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>dianamateuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Диана Матеюк</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рудаковская Эвелина Сергеевна</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rudakovskaya.evelina@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>evelinarud</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Эвелина Рудаковская</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>74</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Телепнёва Кристина Витальевна</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>kristina.telepnva@mail.ru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kristelepneva</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Кристина Телепнёва</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>74</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Астахов Артемий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aeverless@falling.cloud</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aeverless</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Баженов Святослав Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>slava.bazhenov1337@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ze3nn</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Березин Дмитрий Антонович</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>harmoni2013@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Бочкарева Евгения Романовна</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>evgeniab4k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>evgenia0709</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">evgenia0709 </t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Валеева Алина Артуровна</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>alina.valeyeva21@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>alinavaleyeva</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alinavaleyeva </t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вовченко София Евгеньевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sofiavovchenko@mail.ru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sofassssssss</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">София Вовченко </t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Гизатуллин Амир Равильевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>amirgizatullin176@gmail.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ca11ba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Амир Гизатуллин </t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Гребенников Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>beasty2017@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Гурков Арсений Павлович</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>hurars23@gmail.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>arseniygurkov</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Арсений Гурков</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Дамакин Роман Павлович</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>damakinr@mail.ru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>popcorn8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R D</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Исмаилов Максим Владимирович</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>guarus19@gmail.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>hopi44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Кашина Полина Павловна</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>polinochkakashina@gmail.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>polinakashina1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Полина Кашина</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>74</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Кашутин Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>dmitrykashutin_04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lilfolant</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>folant</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Косенко Ярослав Алексеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yaroslaw.koc@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>lrfloppa</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Кузьминых Егор Михайлович</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>egor67877@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>kuza67877</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>egor67877 (Егор Кузьминых)</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Лавренова Юлия Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>julia.d.l.04@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1lavrenkova1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Юлия Лавренова</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Лукьянова Мария Романовна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mari1357924680@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>marielukyanova</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Поглазов Никита Васильевич</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>poglazova.natali@mail.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Сидоренко Алексей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>lesha.sidorenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>rydve</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Симион Владислав Александрович</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ladsimhgs2004@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>vlad432343</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>depressedkid</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Симонов Александр Владимирович</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sashaaasim@mail.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sashasimonovv</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sashasimonovv </t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Соц Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>katesots.404k@gmail.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>katyasots</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Екатерина Соц</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Тимченко Дмитрий Алексеевич</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dmitriy.timchenko@icloud.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>alisha192</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Цыганков Роман Максимович</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>romario280404@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>tsiiron</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-tsiiron</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Шурыгин Данил Леонидович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>danil854458@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>trixeran</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Володченко Матвей Валентинович</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>matvey.volodchenko@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>vernuu</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>74</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Матеюк Диана Сергеевна</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>dianamateuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>daryanikina</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Диана Матеюк</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>26</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Рудаковская Эвелина Сергеевна</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rudakovskaya.evelina@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>evelinarud</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Эвелина Рудаковская</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>74</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Телепнёва Кристина Витальевна</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2384</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>kristina.telepnva@mail.ru</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>kristelepneva</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Кристина Телепнёва</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>74</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>